--- a/medicine/Enfance/Les_Frères_noirs/Les_Frères_noirs.xlsx
+++ b/medicine/Enfance/Les_Frères_noirs/Les_Frères_noirs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Fr%C3%A8res_noirs</t>
+          <t>Les_Frères_noirs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Frères noirs (Die schwarzen Brüder) est un roman écrit par Lisa Tetzner et son mari Kurt Held, publié en Suisse en deux tomes en 1940 et 1941. En France, il a paru en 1983.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Fr%C3%A8res_noirs</t>
+          <t>Les_Frères_noirs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par le biais des archives historiques, l'auteur du roman avait pris connaissance du destin misérable des petits garçons de la vallée de Val Verzasca dans le Canton du Tessin, en Suisse, et d'autres vallées du Tessin, qui étaient utilisés comme ramoneurs dans le nord de l'Italie et dans d'autres villes, notamment en France. Ces garçonnets de six à douze ans étaient loués par les parents nécessiteux des contrées économiquement sinistrées. Ce travail dangereux (car il fallait, autrefois, descendre dans le conduit de la cheminée) a occasionné chez ces enfants ramoneurs nombre d’accidents, voire des décès, ainsi que de graves maladies.
 L'auteur avait notamment appris par les archives l'accident d'un ferry à destination de la ville de Milan, rempli de petits ramoneurs suisses (appelés Spazzacamini). Tous avaient péri, soit trente victimes. L'auteur a rapporté cette catastrophe dans le roman. Des lois françaises relatives à l'emploi des enfants, décourageront les maîtres ramoneurs à employer ces enfants en bas âge et les obligeront à changer leurs méthodes de travail, mais pour les petits ramoneurs de Savoie, cet esclavage durera jusqu'en 1914.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Fr%C3%A8res_noirs</t>
+          <t>Les_Frères_noirs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit Giorgio grandit dans le village de Sonogno, en Suisse, dans une famille de paysans montagnards pauvres. Sa mère se casse un jour la jambe. Parce que la famille n'a pas d'argent pour payer le médecin, Giorgio est vendu comme ramoneur à "L'homme avec la cicatrice", qui l’emmène, lui et d'autres enfants, à Milan. Pendant le voyage, Giorgio se lie d'amitié avec Alfredo. Le bateau chavire : beaucoup d'enfants se noient ; seuls quelques-uns réussissent à gagner la rive du lac où ils sont récupérés par Antonio Luini qui les emmène à Milan.
 À Milan, Giorgio est pris sous la coupe du maître-ramoneur Rossi. Giorgio est humilié et affamé. Nicoletta, la fille malade de Rossi, lui donne de la nourriture en cachette. Giorgio se lie d'amitié avec d'autres garçons ramoneurs, et est admis dans la communauté des Frères noirs (noirs à cause de la suie sur leur visage). Ensemble, les enfants-ramoneurs s'opposent aux attaques d'une bande de garçons de Milan appelée Les Loups.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Fr%C3%A8res_noirs</t>
+          <t>Les_Frères_noirs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cinéma
 2013 : Die schwarzen Brüder, film allemand de Xavier Koller
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Fr%C3%A8res_noirs</t>
+          <t>Les_Frères_noirs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Frères noirs - tome 1, Lisa Tetzner, Paris : L'École des loisirs, traduit par Arthur Schwarz et Boris Moissard, 1983  (ISBN 2-21109-075-3) (BNF 34717825)
 Les Frères noirs - Tome 2, Lisa Tetzner, Paris : L'École des loisirs, traduit par Boris Moissard, 1984 (BNF 34764577)
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_Fr%C3%A8res_noirs</t>
+          <t>Les_Frères_noirs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sites Internet
 (de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Die schwarzen Brüder » (voir la liste des auteurs).
@@ -661,7 +683,7 @@
 L'histoire des petits ramoneurs savoyards
 Les ramoneurs ou petits Savoyards
 La noirceur du petit ramoneur
-Court film français de 1896 sur Youtube : Le livreur, le coursier et le petit ramoneur, fonds Joly-Normandin : [1]
+Court film français de 1896 sur Youtube : Le livreur, le coursier et le petit ramoneur, fonds Joly-Normandin : 
 Livres
 (it) Fam, füm, frecc: il grande romanzo degli spazzacamini Valle d'Aosta, valle Orco, val Cannobina, val Vigezzo, Canton Ticino de Mazzi Benito, Éditeur : Priuli &amp; Verlucca, collection : Quaderni di cultura alpina, 78 p., 2012  (ISBN 9788880686033)
 Histoire passionnante de la vie d'un petit ramoneur savoyard : Écrite par lui-même de Joseph-Laurent Fénix, Éditeur : La Fontaine de Siloé, Collection : Carnets de vie, 180 p., 2008,  (ISBN 2842063996 et 978-2842063993)
